--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_Auto_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_Auto_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.455502252780831</v>
+        <v>2.437664035705469</v>
       </c>
       <c r="C2">
-        <v>1.706464826454403</v>
+        <v>1.700078601593715</v>
       </c>
       <c r="D2">
-        <v>1.461952654701314</v>
+        <v>1.456920224378268</v>
       </c>
       <c r="E2">
-        <v>1.353593429178068</v>
+        <v>1.346585525682575</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.462907254451062</v>
+        <v>2.444871584426221</v>
       </c>
       <c r="C3">
-        <v>1.709113665065556</v>
+        <v>1.703624045046675</v>
       </c>
       <c r="D3">
-        <v>1.464892701919798</v>
+        <v>1.458610037681003</v>
       </c>
       <c r="E3">
-        <v>1.35411234183089</v>
+        <v>1.347817107110185</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.432045804322756</v>
+        <v>2.41651902216063</v>
       </c>
       <c r="C4">
-        <v>1.695781271370396</v>
+        <v>1.689118343792704</v>
       </c>
       <c r="D4">
-        <v>1.456639341935974</v>
+        <v>1.451047547992394</v>
       </c>
       <c r="E4">
-        <v>1.348175296430889</v>
+        <v>1.342443321396813</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.463014875358469</v>
+        <v>2.446396964240126</v>
       </c>
       <c r="C5">
-        <v>1.7121455351616</v>
+        <v>1.705623931229836</v>
       </c>
       <c r="D5">
-        <v>1.451690941020282</v>
+        <v>1.446216490933229</v>
       </c>
       <c r="E5">
-        <v>1.356076042809345</v>
+        <v>1.350032931609149</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.470248056126295</v>
+        <v>2.453820867654344</v>
       </c>
       <c r="C6">
-        <v>1.716447214179883</v>
+        <v>1.709811521561945</v>
       </c>
       <c r="D6">
-        <v>1.45540592954545</v>
+        <v>1.448875947771873</v>
       </c>
       <c r="E6">
-        <v>1.357994596403087</v>
+        <v>1.352104465373867</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.462792871484835</v>
+        <v>2.445607710036875</v>
       </c>
       <c r="C7">
-        <v>1.711567351997812</v>
+        <v>1.705657750267797</v>
       </c>
       <c r="D7">
-        <v>1.466810775518669</v>
+        <v>1.461064592524589</v>
       </c>
       <c r="E7">
-        <v>1.356606662387238</v>
+        <v>1.3502050541849</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.444401318218998</v>
+        <v>2.428272206215448</v>
       </c>
       <c r="C8">
-        <v>1.698343870465321</v>
+        <v>1.691569675101092</v>
       </c>
       <c r="D8">
-        <v>1.470041806802793</v>
+        <v>1.463279494679763</v>
       </c>
       <c r="E8">
-        <v>1.346412733317828</v>
+        <v>1.34067164994444</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.454930654785713</v>
+        <v>2.438785451754285</v>
       </c>
       <c r="C9">
-        <v>1.704845761701069</v>
+        <v>1.699117520271848</v>
       </c>
       <c r="D9">
-        <v>1.460725692950726</v>
+        <v>1.455019439359377</v>
       </c>
       <c r="E9">
-        <v>1.350787556055375</v>
+        <v>1.344961376309288</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.367848190844247</v>
+        <v>2.350206967072472</v>
       </c>
       <c r="C10">
-        <v>1.672222874972743</v>
+        <v>1.664463245616165</v>
       </c>
       <c r="D10">
-        <v>1.452455680399205</v>
+        <v>1.44357601379494</v>
       </c>
       <c r="E10">
-        <v>1.344552337962763</v>
+        <v>1.338037341956309</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.373167450654883</v>
+        <v>2.355463786409341</v>
       </c>
       <c r="C11">
-        <v>1.678433583880493</v>
+        <v>1.670736457539431</v>
       </c>
       <c r="D11">
-        <v>1.452465767565398</v>
+        <v>1.446995113239449</v>
       </c>
       <c r="E11">
-        <v>1.347015792296705</v>
+        <v>1.339872308311112</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2.255999051510582</v>
+        <v>2.232917583795264</v>
       </c>
       <c r="C12">
-        <v>1.626389927791972</v>
+        <v>1.617529040115271</v>
       </c>
       <c r="D12">
-        <v>1.432832171942477</v>
+        <v>1.42465114317971</v>
       </c>
       <c r="E12">
-        <v>1.331404761496812</v>
+        <v>1.324747553747766</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2.358184694559362</v>
+        <v>2.338634367234772</v>
       </c>
       <c r="C13">
-        <v>1.666206264672972</v>
+        <v>1.658285052561531</v>
       </c>
       <c r="D13">
-        <v>1.449008024485522</v>
+        <v>1.440235713151947</v>
       </c>
       <c r="E13">
-        <v>1.342536249154441</v>
+        <v>1.335620606451476</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_Auto_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_Auto_Fiets.xlsx
@@ -388,13 +388,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.437664035705469</v>
+        <v>2.43766403570547</v>
       </c>
       <c r="C2">
-        <v>1.700078601593715</v>
+        <v>1.700078601593717</v>
       </c>
       <c r="D2">
-        <v>1.456920224378268</v>
+        <v>1.456920224378267</v>
       </c>
       <c r="E2">
         <v>1.346585525682575</v>
@@ -408,13 +408,13 @@
         <v>2.444871584426221</v>
       </c>
       <c r="C3">
-        <v>1.703624045046675</v>
+        <v>1.703624045046674</v>
       </c>
       <c r="D3">
         <v>1.458610037681003</v>
       </c>
       <c r="E3">
-        <v>1.347817107110185</v>
+        <v>1.347817107110186</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -439,13 +439,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.446396964240126</v>
+        <v>2.446396964240129</v>
       </c>
       <c r="C5">
-        <v>1.705623931229836</v>
+        <v>1.705623931229837</v>
       </c>
       <c r="D5">
-        <v>1.446216490933229</v>
+        <v>1.446216490933228</v>
       </c>
       <c r="E5">
         <v>1.350032931609149</v>
@@ -456,13 +456,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.453820867654344</v>
+        <v>2.453820867654346</v>
       </c>
       <c r="C6">
         <v>1.709811521561945</v>
       </c>
       <c r="D6">
-        <v>1.448875947771873</v>
+        <v>1.448875947771871</v>
       </c>
       <c r="E6">
         <v>1.352104465373867</v>
@@ -473,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.445607710036875</v>
+        <v>2.445607710036876</v>
       </c>
       <c r="C7">
         <v>1.705657750267797</v>
@@ -490,7 +490,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.428272206215448</v>
+        <v>2.428272206215447</v>
       </c>
       <c r="C8">
         <v>1.691569675101092</v>
@@ -510,10 +510,10 @@
         <v>2.438785451754285</v>
       </c>
       <c r="C9">
-        <v>1.699117520271848</v>
+        <v>1.699117520271849</v>
       </c>
       <c r="D9">
-        <v>1.455019439359377</v>
+        <v>1.455019439359379</v>
       </c>
       <c r="E9">
         <v>1.344961376309288</v>
@@ -524,7 +524,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.350206967072472</v>
+        <v>2.350206967072475</v>
       </c>
       <c r="C10">
         <v>1.664463245616165</v>
@@ -533,7 +533,7 @@
         <v>1.44357601379494</v>
       </c>
       <c r="E10">
-        <v>1.338037341956309</v>
+        <v>1.33803734195631</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.355463786409341</v>
+        <v>2.355463786409342</v>
       </c>
       <c r="C11">
-        <v>1.670736457539431</v>
+        <v>1.670736457539432</v>
       </c>
       <c r="D11">
-        <v>1.446995113239449</v>
+        <v>1.44699511323945</v>
       </c>
       <c r="E11">
-        <v>1.339872308311112</v>
+        <v>1.339872308311111</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,7 +558,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2.232917583795264</v>
+        <v>2.232917583795265</v>
       </c>
       <c r="C12">
         <v>1.617529040115271</v>
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2.338634367234772</v>
+        <v>2.338634367234773</v>
       </c>
       <c r="C13">
-        <v>1.658285052561531</v>
+        <v>1.65828505256153</v>
       </c>
       <c r="D13">
         <v>1.440235713151947</v>
       </c>
       <c r="E13">
-        <v>1.335620606451476</v>
+        <v>1.335620606451475</v>
       </c>
     </row>
   </sheetData>
